--- a/Table.xlsx
+++ b/Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\實習\project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\程式語言\intellij-java\project1\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC55297-DCFF-457F-9BA2-493170E1F16B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F3E1C-E595-4682-96B6-60F99A6A0D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16733" windowHeight="5565" xr2:uid="{B997F4B2-BA80-42F0-AB01-07DAAFA515D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,26 @@
   </si>
   <si>
     <t>role資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_role資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42ECFFF2-EB34-443B-B016-E0D24D553774}" name="表格2" displayName="表格2" ref="E3:H9" totalsRowShown="0">
-  <autoFilter ref="E3:H9" xr:uid="{2841BA21-3982-4FBA-A0E7-D9144FC67D39}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{42ECFFF2-EB34-443B-B016-E0D24D553774}" name="表格2" displayName="表格2" ref="E3:H10" totalsRowShown="0">
+  <autoFilter ref="E3:H10" xr:uid="{2841BA21-3982-4FBA-A0E7-D9144FC67D39}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{ED993696-003F-45BD-867B-B426283CDB72}" name="名稱"/>
     <tableColumn id="2" xr3:uid="{4D42DA13-3D08-469B-B04A-4664832F24CD}" name="資料類型"/>
@@ -301,6 +321,19 @@
     <tableColumn id="2" xr3:uid="{208C0D0B-BF28-4218-9B4C-BC835F19F57D}" name="資料類型"/>
     <tableColumn id="3" xr3:uid="{B8323CA0-9E03-49D3-8B9D-BE0B6A04BC61}" name="長度設置"/>
     <tableColumn id="4" xr3:uid="{D14370F0-6C76-431B-AFDF-0C30F520AE64}" name="允許null"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53C1B509-917F-4F3C-A56D-C68FBA518C92}" name="表格4_4" displayName="表格4_4" ref="M3:P6" totalsRowShown="0">
+  <autoFilter ref="M3:P6" xr:uid="{4294F3AC-49C2-41AC-91A5-D2DF71F1D31E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{97E1CE95-350D-485C-83C3-B7591BF3F017}" name="名稱"/>
+    <tableColumn id="2" xr3:uid="{1E35BB8D-C022-429C-8433-7ADF39D18219}" name="資料類型"/>
+    <tableColumn id="3" xr3:uid="{434F7B6F-C84A-4C9F-946A-B49F4D7411D8}" name="長度設置"/>
+    <tableColumn id="4" xr3:uid="{E408D832-DF1A-4248-BD41-DA4DD83A001B}" name="允許null"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5CB66A-4645-4F90-9628-882B1484DB64}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -619,9 +652,16 @@
     <col min="6" max="6" width="12.46484375" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.46484375" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.06640625" customWidth="1"/>
+    <col min="13" max="13" width="11.265625" customWidth="1"/>
+    <col min="14" max="14" width="12.73046875" customWidth="1"/>
+    <col min="15" max="15" width="11.86328125" customWidth="1"/>
+    <col min="16" max="16" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -640,8 +680,14 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -654,8 +700,12 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -692,8 +742,20 @@
       <c r="L3" t="s">
         <v>24</v>
       </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -722,8 +784,17 @@
       <c r="K4">
         <v>11</v>
       </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -760,8 +831,18 @@
       <c r="L5" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+      <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -786,8 +867,17 @@
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -813,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -839,7 +929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -865,19 +955,35 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
     <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>